--- a/public/data/net.xlsx
+++ b/public/data/net.xlsx
@@ -4922,7 +4922,7 @@
         <v>101.0006658133338</v>
       </c>
       <c r="J66" t="n">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K66" t="n">
         <v>320</v>
@@ -4937,16 +4937,16 @@
         <v>-2802054.215529459</v>
       </c>
       <c r="O66" t="n">
-        <v>-6087424.4641088</v>
+        <v>-5953143.0421064</v>
       </c>
       <c r="P66" t="n">
         <v>-7161675.840128001</v>
       </c>
       <c r="Q66" t="n">
-        <v>-8889478.679638259</v>
+        <v>-8755197.257635858</v>
       </c>
       <c r="R66" t="n">
-        <v>-6087424.464108801</v>
+        <v>-5953143.0421064</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K67" t="n">
         <v>320</v>
@@ -5005,16 +5005,16 @@
         <v>-1982520</v>
       </c>
       <c r="O67" t="n">
-        <v>3991680</v>
+        <v>3896640</v>
       </c>
       <c r="P67" t="n">
         <v>5068800</v>
       </c>
       <c r="Q67" t="n">
-        <v>2009160</v>
+        <v>1914120</v>
       </c>
       <c r="R67" t="n">
-        <v>4308480</v>
+        <v>4213440</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>161.837460506797</v>
       </c>
       <c r="J68" t="n">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K68" t="n">
         <v>320</v>
@@ -5073,16 +5073,16 @@
         <v>-6405558.948317646</v>
       </c>
       <c r="O68" t="n">
-        <v>5385600</v>
+        <v>5266800</v>
       </c>
       <c r="P68" t="n">
         <v>6336000</v>
       </c>
       <c r="Q68" t="n">
-        <v>-1019958.948317646</v>
+        <v>-1138758.948317646</v>
       </c>
       <c r="R68" t="n">
-        <v>5385600</v>
+        <v>5266800</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K71" t="n">
         <v>320</v>
@@ -5277,16 +5277,16 @@
         <v>-3389124.621592975</v>
       </c>
       <c r="O71" t="n">
-        <v>4554000</v>
+        <v>4454640.000000001</v>
       </c>
       <c r="P71" t="n">
         <v>5299200</v>
       </c>
       <c r="Q71" t="n">
-        <v>1164875.378407025</v>
+        <v>1065515.378407026</v>
       </c>
       <c r="R71" t="n">
-        <v>4504320</v>
+        <v>4404960</v>
       </c>
       <c r="S71" t="n">
         <v>380880</v>
@@ -5330,7 +5330,7 @@
         <v>165.0561780606913</v>
       </c>
       <c r="J72" t="n">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K72" t="n">
         <v>320</v>
@@ -5345,16 +5345,16 @@
         <v>1901447.171259163</v>
       </c>
       <c r="O72" t="n">
-        <v>-3398400</v>
+        <v>-3329280</v>
       </c>
       <c r="P72" t="n">
         <v>-3686400</v>
       </c>
       <c r="Q72" t="n">
-        <v>-1496952.828740837</v>
+        <v>-1427832.828740837</v>
       </c>
       <c r="R72" t="n">
-        <v>-3133440</v>
+        <v>-3064320</v>
       </c>
       <c r="S72" t="n">
         <v>-264960</v>
@@ -5466,7 +5466,7 @@
         <v>101.0697522652356</v>
       </c>
       <c r="J74" t="n">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="K74" t="n">
         <v>350</v>
@@ -5481,16 +5481,16 @@
         <v>-2925577.562826423</v>
       </c>
       <c r="O74" t="n">
-        <v>-6837635.399865599</v>
+        <v>-6199456.095878145</v>
       </c>
       <c r="P74" t="n">
         <v>-7977241.2998432</v>
       </c>
       <c r="Q74" t="n">
-        <v>-9763212.962692022</v>
+        <v>-9125033.658704568</v>
       </c>
       <c r="R74" t="n">
-        <v>-6837635.399865601</v>
+        <v>-6199456.095878146</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="K75" t="n">
         <v>350</v>
@@ -5549,16 +5549,16 @@
         <v>-2048604</v>
       </c>
       <c r="O75" t="n">
-        <v>4583040</v>
+        <v>4124736</v>
       </c>
       <c r="P75" t="n">
         <v>5728800</v>
       </c>
       <c r="Q75" t="n">
-        <v>2534436</v>
+        <v>2076132</v>
       </c>
       <c r="R75" t="n">
-        <v>4910400</v>
+        <v>4452096</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
@@ -5593,16 +5593,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>79.9414846832577</v>
+        <v>677.9061000678731</v>
       </c>
       <c r="H76" t="n">
-        <v>210.1880788764419</v>
+        <v>244.1388134236847</v>
       </c>
       <c r="I76" t="n">
         <v>141.6120002168765</v>
       </c>
       <c r="J76" t="n">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="K76" t="n">
         <v>350</v>
@@ -5611,22 +5611,22 @@
         <v>744</v>
       </c>
       <c r="M76" t="n">
-        <v>-6.5</v>
+        <v>6.5</v>
       </c>
       <c r="N76" t="n">
-        <v>-386597.0199282341</v>
+        <v>-3278353.899928234</v>
       </c>
       <c r="O76" t="n">
-        <v>-1450800</v>
+        <v>1315392</v>
       </c>
       <c r="P76" t="n">
-        <v>-1692600</v>
+        <v>1692600</v>
       </c>
       <c r="Q76" t="n">
-        <v>-1837397.019928233</v>
+        <v>-1962961.899928234</v>
       </c>
       <c r="R76" t="n">
-        <v>-1450800</v>
+        <v>1315392</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="K79" t="n">
         <v>350</v>
@@ -5821,16 +5821,16 @@
         <v>-3053578.731242708</v>
       </c>
       <c r="O79" t="n">
-        <v>4519911.6</v>
+        <v>4102230</v>
       </c>
       <c r="P79" t="n">
         <v>5221020</v>
       </c>
       <c r="Q79" t="n">
-        <v>1466332.868757292</v>
+        <v>1048651.268757291</v>
       </c>
       <c r="R79" t="n">
-        <v>4475160</v>
+        <v>4057478.4</v>
       </c>
       <c r="S79" t="n">
         <v>343095.6</v>
@@ -5874,7 +5874,7 @@
         <v>165.0561780606913</v>
       </c>
       <c r="J80" t="n">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="K80" t="n">
         <v>350</v>
@@ -5889,16 +5889,16 @@
         <v>1964828.743634468</v>
       </c>
       <c r="O80" t="n">
-        <v>-3844992</v>
+        <v>-3511680</v>
       </c>
       <c r="P80" t="n">
         <v>-4166400</v>
       </c>
       <c r="Q80" t="n">
-        <v>-1880163.256365531</v>
+        <v>-1546851.256365531</v>
       </c>
       <c r="R80" t="n">
-        <v>-3571200</v>
+        <v>-3237888</v>
       </c>
       <c r="S80" t="n">
         <v>-273792</v>
@@ -6010,7 +6010,7 @@
         <v>100.7675104534437</v>
       </c>
       <c r="J82" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K82" t="n">
         <v>261</v>
@@ -6025,16 +6025,16 @@
         <v>-2700877.78873667</v>
       </c>
       <c r="O82" t="n">
-        <v>-7379800.386100478</v>
+        <v>-7332795.28809984</v>
       </c>
       <c r="P82" t="n">
         <v>-6134165.28908352</v>
       </c>
       <c r="Q82" t="n">
-        <v>-10080678.17483715</v>
+        <v>-10033673.07683651</v>
       </c>
       <c r="R82" t="n">
-        <v>-7379800.386100478</v>
+        <v>-7332795.28809984</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K83" t="n">
         <v>261</v>
@@ -6093,16 +6093,16 @@
         <v>-1982520</v>
       </c>
       <c r="O83" t="n">
-        <v>4656960</v>
+        <v>4625280</v>
       </c>
       <c r="P83" t="n">
         <v>4134240</v>
       </c>
       <c r="Q83" t="n">
-        <v>2674440</v>
+        <v>2642760</v>
       </c>
       <c r="R83" t="n">
-        <v>4973760</v>
+        <v>4942080</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -6137,16 +6137,16 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>101.9384077601809</v>
+        <v>5773.99930088235</v>
       </c>
       <c r="H84" t="n">
-        <v>212.7183142447378</v>
+        <v>242.1331862562112</v>
       </c>
       <c r="I84" t="n">
         <v>129.2379594271063</v>
       </c>
       <c r="J84" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K84" t="n">
         <v>261</v>
@@ -6155,22 +6155,22 @@
         <v>720</v>
       </c>
       <c r="M84" t="n">
-        <v>-6.5</v>
+        <v>0.5</v>
       </c>
       <c r="N84" t="n">
-        <v>-477071.7483176461</v>
+        <v>-2078639.748317646</v>
       </c>
       <c r="O84" t="n">
-        <v>-1469520</v>
+        <v>112320</v>
       </c>
       <c r="P84" t="n">
-        <v>-1221480</v>
+        <v>93960</v>
       </c>
       <c r="Q84" t="n">
-        <v>-1946591.748317647</v>
+        <v>-1966319.748317647</v>
       </c>
       <c r="R84" t="n">
-        <v>-1469520</v>
+        <v>112320</v>
       </c>
       <c r="S84" t="n">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K87" t="n">
         <v>261</v>
@@ -6365,16 +6365,16 @@
         <v>-2493070.71743073</v>
       </c>
       <c r="O87" t="n">
-        <v>3859538.399999999</v>
+        <v>3835188</v>
       </c>
       <c r="P87" t="n">
         <v>3177727.2</v>
       </c>
       <c r="Q87" t="n">
-        <v>1366467.682569268</v>
+        <v>1342117.282569268</v>
       </c>
       <c r="R87" t="n">
-        <v>3823012.8</v>
+        <v>3798662.4</v>
       </c>
       <c r="S87" t="n">
         <v>280029.6</v>
@@ -6418,7 +6418,7 @@
         <v>165.0561780606913</v>
       </c>
       <c r="J88" t="n">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K88" t="n">
         <v>261</v>
@@ -6433,16 +6433,16 @@
         <v>1901447.171259163</v>
       </c>
       <c r="O88" t="n">
-        <v>-3882240</v>
+        <v>-3859200</v>
       </c>
       <c r="P88" t="n">
         <v>-3006720</v>
       </c>
       <c r="Q88" t="n">
-        <v>-1980792.828740837</v>
+        <v>-1957752.828740837</v>
       </c>
       <c r="R88" t="n">
-        <v>-3617280</v>
+        <v>-3594240</v>
       </c>
       <c r="S88" t="n">
         <v>-264960</v>
@@ -6554,7 +6554,7 @@
         <v>100.8717686897909</v>
       </c>
       <c r="J90" t="n">
-        <v>277</v>
+        <v>278.01</v>
       </c>
       <c r="K90" t="n">
         <v>215</v>
@@ -6569,16 +6569,16 @@
         <v>-2838219.418130266</v>
       </c>
       <c r="O90" t="n">
-        <v>-6581838.273017728</v>
+        <v>-6605837.033507792</v>
       </c>
       <c r="P90" t="n">
         <v>-5108647.035013759</v>
       </c>
       <c r="Q90" t="n">
-        <v>-9420057.691147992</v>
+        <v>-9444056.451638058</v>
       </c>
       <c r="R90" t="n">
-        <v>-6581838.273017729</v>
+        <v>-6605837.033507792</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>257</v>
+        <v>258.01</v>
       </c>
       <c r="K91" t="n">
         <v>215</v>
@@ -6637,16 +6637,16 @@
         <v>-2048604</v>
       </c>
       <c r="O91" t="n">
-        <v>4206576</v>
+        <v>4223107.68</v>
       </c>
       <c r="P91" t="n">
         <v>3519120</v>
       </c>
       <c r="Q91" t="n">
-        <v>2157972</v>
+        <v>2174503.68</v>
       </c>
       <c r="R91" t="n">
-        <v>4533936</v>
+        <v>4550467.68</v>
       </c>
       <c r="S91" t="n">
         <v>0</v>
@@ -6690,7 +6690,7 @@
         <v>129.2379594271063</v>
       </c>
       <c r="J92" t="n">
-        <v>277</v>
+        <v>278.01</v>
       </c>
       <c r="K92" t="n">
         <v>215</v>
@@ -6705,16 +6705,16 @@
         <v>1396041.860071766</v>
       </c>
       <c r="O92" t="n">
-        <v>-2988276</v>
+        <v>-2999171.88</v>
       </c>
       <c r="P92" t="n">
         <v>-2319420</v>
       </c>
       <c r="Q92" t="n">
-        <v>-1592234.139928234</v>
+        <v>-1603130.019928233</v>
       </c>
       <c r="R92" t="n">
-        <v>-2988276</v>
+        <v>-2999171.88</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>280</v>
+        <v>281.01</v>
       </c>
       <c r="K95" t="n">
         <v>215</v>
@@ -6909,16 +6909,16 @@
         <v>-2351380.97943938</v>
       </c>
       <c r="O95" t="n">
-        <v>3215452.5312</v>
+        <v>3227051.1278304</v>
       </c>
       <c r="P95" t="n">
         <v>2469008.1936</v>
       </c>
       <c r="Q95" t="n">
-        <v>864071.5517606208</v>
+        <v>875670.1483910203</v>
       </c>
       <c r="R95" t="n">
-        <v>3181001.25408</v>
+        <v>3192599.8507104</v>
       </c>
       <c r="S95" t="n">
         <v>264126.45792</v>
@@ -6962,7 +6962,7 @@
         <v>165.0561780606913</v>
       </c>
       <c r="J96" t="n">
-        <v>300</v>
+        <v>301.01</v>
       </c>
       <c r="K96" t="n">
         <v>215</v>
@@ -6977,16 +6977,16 @@
         <v>1964828.743634468</v>
       </c>
       <c r="O96" t="n">
-        <v>-3571200</v>
+        <v>-3583223.04</v>
       </c>
       <c r="P96" t="n">
         <v>-2559360</v>
       </c>
       <c r="Q96" t="n">
-        <v>-1606371.256365531</v>
+        <v>-1618394.296365531</v>
       </c>
       <c r="R96" t="n">
-        <v>-3297408</v>
+        <v>-3309431.04</v>
       </c>
       <c r="S96" t="n">
         <v>-273792</v>
@@ -7089,16 +7089,16 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>493.4191988816796</v>
+        <v>495.6342526451205</v>
       </c>
       <c r="H98" t="n">
         <v>277.22153234181</v>
       </c>
       <c r="I98" t="n">
-        <v>211.5143983934183</v>
+        <v>210.8411957790392</v>
       </c>
       <c r="J98" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K98" t="n">
         <v>281.6</v>
@@ -7110,19 +7110,19 @@
         <v>9.299999999999997</v>
       </c>
       <c r="N98" t="n">
-        <v>-3414066.120902117</v>
+        <v>-3429392.520902117</v>
       </c>
       <c r="O98" t="n">
-        <v>1494547.2</v>
+        <v>1487628</v>
       </c>
       <c r="P98" t="n">
         <v>1948446.719999999</v>
       </c>
       <c r="Q98" t="n">
-        <v>-1919518.920902118</v>
+        <v>-1941764.520902117</v>
       </c>
       <c r="R98" t="n">
-        <v>1736719.2</v>
+        <v>1729800</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
@@ -7157,16 +7157,16 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H99" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I99" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J99" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K99" t="n">
         <v>281.6</v>
@@ -7178,10 +7178,10 @@
         <v>15.35</v>
       </c>
       <c r="N99" t="n">
-        <v>-2181296.4</v>
+        <v>-2169876</v>
       </c>
       <c r="O99" t="n">
-        <v>2181296.4</v>
+        <v>2169876</v>
       </c>
       <c r="P99" t="n">
         <v>3215984.64</v>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="R99" t="n">
-        <v>2866520.4</v>
+        <v>2855100</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
@@ -7225,16 +7225,16 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>214.2855795785954</v>
+        <v>213.6597999528158</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>214.2855795785954</v>
+        <v>213.6597999528158</v>
       </c>
       <c r="J100" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K100" t="n">
         <v>281.6</v>
@@ -7246,19 +7246,19 @@
         <v>-48.1</v>
       </c>
       <c r="N100" t="n">
-        <v>7668509.465031448</v>
+        <v>7646115.065031447</v>
       </c>
       <c r="O100" t="n">
-        <v>-8982386.4</v>
+        <v>-8946600</v>
       </c>
       <c r="P100" t="n">
         <v>-10077450.24</v>
       </c>
       <c r="Q100" t="n">
-        <v>-1313876.934968553</v>
+        <v>-1300484.934968553</v>
       </c>
       <c r="R100" t="n">
-        <v>-8982386.4</v>
+        <v>-8946600</v>
       </c>
       <c r="S100" t="n">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K103" t="n">
         <v>281.6</v>
@@ -7453,16 +7453,16 @@
         <v>-2670631.219194256</v>
       </c>
       <c r="O103" t="n">
-        <v>2757264</v>
+        <v>2744616</v>
       </c>
       <c r="P103" t="n">
         <v>3561676.8</v>
       </c>
       <c r="Q103" t="n">
-        <v>86632.78080574395</v>
+        <v>73984.78080574369</v>
       </c>
       <c r="R103" t="n">
-        <v>3174648</v>
+        <v>3162000</v>
       </c>
       <c r="S103" t="n">
         <v>341496</v>
@@ -7506,7 +7506,7 @@
         <v>174.0788610455567</v>
       </c>
       <c r="J104" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K104" t="n">
         <v>281.6</v>
@@ -7521,16 +7521,16 @@
         <v>1942720.089268412</v>
       </c>
       <c r="O104" t="n">
-        <v>-3102480</v>
+        <v>-3091320</v>
       </c>
       <c r="P104" t="n">
         <v>-3142656</v>
       </c>
       <c r="Q104" t="n">
-        <v>-1159759.910731588</v>
+        <v>-1148599.910731588</v>
       </c>
       <c r="R104" t="n">
-        <v>-2801160</v>
+        <v>-2790000</v>
       </c>
       <c r="S104" t="n">
         <v>-301320</v>
@@ -7633,16 +7633,16 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>518.1075585011264</v>
+        <v>520.6087294613138</v>
       </c>
       <c r="H106" t="n">
         <v>277.22153234181</v>
       </c>
       <c r="I106" t="n">
-        <v>211.6231055752105</v>
+        <v>210.9419831262309</v>
       </c>
       <c r="J106" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K106" t="n">
         <v>264.2</v>
@@ -7654,19 +7654,19 @@
         <v>8.539999999999999</v>
       </c>
       <c r="N106" t="n">
-        <v>-2973357.105330945</v>
+        <v>-2987711.025330945</v>
       </c>
       <c r="O106" t="n">
-        <v>1239598.08</v>
+        <v>1233859.2</v>
       </c>
       <c r="P106" t="n">
         <v>1516212.096</v>
       </c>
       <c r="Q106" t="n">
-        <v>-1733759.025330944</v>
+        <v>-1753851.825330944</v>
       </c>
       <c r="R106" t="n">
-        <v>1440458.88</v>
+        <v>1434720</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H107" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I107" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J107" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K107" t="n">
         <v>264.2</v>
@@ -7722,10 +7722,10 @@
         <v>14.7</v>
       </c>
       <c r="N107" t="n">
-        <v>-1886774.4</v>
+        <v>-1876896</v>
       </c>
       <c r="O107" t="n">
-        <v>1886774.4</v>
+        <v>1876896</v>
       </c>
       <c r="P107" t="n">
         <v>2609873.28</v>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="R107" t="n">
-        <v>2479478.4</v>
+        <v>2469600</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
@@ -7769,16 +7769,16 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>214.573357626453</v>
+        <v>213.9446447551659</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>214.573357626453</v>
+        <v>213.9446447551659</v>
       </c>
       <c r="J108" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K108" t="n">
         <v>264.2</v>
@@ -7790,19 +7790,19 @@
         <v>-48.48</v>
       </c>
       <c r="N108" t="n">
-        <v>6990491.005834855</v>
+        <v>6970008.445834856</v>
       </c>
       <c r="O108" t="n">
-        <v>-8177218.560000001</v>
+        <v>-8144640</v>
       </c>
       <c r="P108" t="n">
         <v>-8607255.552000001</v>
       </c>
       <c r="Q108" t="n">
-        <v>-1186727.554165144</v>
+        <v>-1174631.554165144</v>
       </c>
       <c r="R108" t="n">
-        <v>-8177218.560000001</v>
+        <v>-8144640</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K111" t="n">
         <v>264.2</v>
@@ -7997,16 +7997,16 @@
         <v>-2412183.036691586</v>
       </c>
       <c r="O111" t="n">
-        <v>2490432</v>
+        <v>2479008</v>
       </c>
       <c r="P111" t="n">
         <v>3018220.8</v>
       </c>
       <c r="Q111" t="n">
-        <v>78248.96330841398</v>
+        <v>66824.96330841389</v>
       </c>
       <c r="R111" t="n">
-        <v>2867424</v>
+        <v>2856000</v>
       </c>
       <c r="S111" t="n">
         <v>308448</v>
@@ -8050,7 +8050,7 @@
         <v>174.0788610455567</v>
       </c>
       <c r="J112" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K112" t="n">
         <v>264.2</v>
@@ -8065,16 +8065,16 @@
         <v>1754714.919339211</v>
       </c>
       <c r="O112" t="n">
-        <v>-2802240</v>
+        <v>-2792160</v>
       </c>
       <c r="P112" t="n">
         <v>-2663136</v>
       </c>
       <c r="Q112" t="n">
-        <v>-1047525.080660789</v>
+        <v>-1037445.080660789</v>
       </c>
       <c r="R112" t="n">
-        <v>-2530080</v>
+        <v>-2520000</v>
       </c>
       <c r="S112" t="n">
         <v>-272160</v>
@@ -8177,16 +8177,16 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>496.4346249564804</v>
+        <v>498.6846249564804</v>
       </c>
       <c r="H114" t="n">
         <v>277.22153234181</v>
       </c>
       <c r="I114" t="n">
-        <v>211.52900947357</v>
+        <v>210.8547423725928</v>
       </c>
       <c r="J114" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K114" t="n">
         <v>377.3</v>
@@ -8198,19 +8198,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="N114" t="n">
-        <v>-3397995.720902117</v>
+        <v>-3413396.520902117</v>
       </c>
       <c r="O114" t="n">
-        <v>1478476.8</v>
+        <v>1471632</v>
       </c>
       <c r="P114" t="n">
         <v>2582543.040000001</v>
       </c>
       <c r="Q114" t="n">
-        <v>-1919518.920902118</v>
+        <v>-1941764.520902117</v>
       </c>
       <c r="R114" t="n">
-        <v>1718044.8</v>
+        <v>1711200</v>
       </c>
       <c r="S114" t="n">
         <v>0</v>
@@ -8245,16 +8245,16 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H115" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I115" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J115" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K115" t="n">
         <v>377.3</v>
@@ -8266,10 +8266,10 @@
         <v>16</v>
       </c>
       <c r="N115" t="n">
-        <v>-2273664</v>
+        <v>-2261760</v>
       </c>
       <c r="O115" t="n">
-        <v>2273664</v>
+        <v>2261760</v>
       </c>
       <c r="P115" t="n">
         <v>4491379.199999999</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="R115" t="n">
-        <v>2987904</v>
+        <v>2976000</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -8313,16 +8313,16 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>214.308464112413</v>
+        <v>213.6824512306345</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>214.308464112413</v>
+        <v>213.6824512306345</v>
       </c>
       <c r="J116" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K116" t="n">
         <v>377.3</v>
@@ -8334,19 +8334,19 @@
         <v>-48.13</v>
       </c>
       <c r="N116" t="n">
-        <v>7674111.785031447</v>
+        <v>7651695.065031447</v>
       </c>
       <c r="O116" t="n">
-        <v>-8987988.719999999</v>
+        <v>-8952180</v>
       </c>
       <c r="P116" t="n">
         <v>-13510630.056</v>
       </c>
       <c r="Q116" t="n">
-        <v>-1313876.934968553</v>
+        <v>-1300484.934968553</v>
       </c>
       <c r="R116" t="n">
-        <v>-8987988.720000001</v>
+        <v>-8952180</v>
       </c>
       <c r="S116" t="n">
         <v>0</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K119" t="n">
         <v>377.3</v>
@@ -8541,16 +8541,16 @@
         <v>-2670631.219194256</v>
       </c>
       <c r="O119" t="n">
-        <v>2757264</v>
+        <v>2744616</v>
       </c>
       <c r="P119" t="n">
         <v>4772090.4</v>
       </c>
       <c r="Q119" t="n">
-        <v>86632.78080574395</v>
+        <v>73984.78080574369</v>
       </c>
       <c r="R119" t="n">
-        <v>3174648</v>
+        <v>3162000</v>
       </c>
       <c r="S119" t="n">
         <v>341496</v>
@@ -8594,7 +8594,7 @@
         <v>174.0788610455567</v>
       </c>
       <c r="J120" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K120" t="n">
         <v>377.3</v>
@@ -8609,16 +8609,16 @@
         <v>1942720.089268412</v>
       </c>
       <c r="O120" t="n">
-        <v>-3102480</v>
+        <v>-3091320</v>
       </c>
       <c r="P120" t="n">
         <v>-4210668</v>
       </c>
       <c r="Q120" t="n">
-        <v>-1159759.910731588</v>
+        <v>-1148599.910731588</v>
       </c>
       <c r="R120" t="n">
-        <v>-2801160</v>
+        <v>-2790000</v>
       </c>
       <c r="S120" t="n">
         <v>-301320</v>
@@ -8721,16 +8721,16 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>481.9792319174866</v>
+        <v>484.0617061442907</v>
       </c>
       <c r="H122" t="n">
         <v>277.22153234181</v>
       </c>
       <c r="I122" t="n">
-        <v>211.4549864516093</v>
+        <v>210.7861122794238</v>
       </c>
       <c r="J122" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -8742,19 +8742,19 @@
         <v>9.699999999999999</v>
       </c>
       <c r="N122" t="n">
-        <v>-3366142.955711726</v>
+        <v>-3380686.955711726</v>
       </c>
       <c r="O122" t="n">
-        <v>1508544</v>
+        <v>1501560</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
       </c>
       <c r="Q122" t="n">
-        <v>-1857598.955711726</v>
+        <v>-1879126.955711726</v>
       </c>
       <c r="R122" t="n">
-        <v>1752984</v>
+        <v>1746000</v>
       </c>
       <c r="S122" t="n">
         <v>0</v>
@@ -8789,16 +8789,16 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H123" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I123" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J123" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -8810,10 +8810,10 @@
         <v>16.1</v>
       </c>
       <c r="N123" t="n">
-        <v>-2214072</v>
+        <v>-2202480</v>
       </c>
       <c r="O123" t="n">
-        <v>2214072</v>
+        <v>2202480</v>
       </c>
       <c r="P123" t="n">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="R123" t="n">
-        <v>2909592</v>
+        <v>2898000</v>
       </c>
       <c r="S123" t="n">
         <v>0</v>
@@ -8857,16 +8857,16 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>213.5934415956458</v>
+        <v>212.974716749215</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>213.5934415956458</v>
+        <v>212.974716749215</v>
       </c>
       <c r="J124" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -8878,19 +8878,19 @@
         <v>-47.21</v>
       </c>
       <c r="N124" t="n">
-        <v>7260297.391965916</v>
+        <v>7239266.191965917</v>
       </c>
       <c r="O124" t="n">
-        <v>-8531791.199999999</v>
+        <v>-8497800</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>-1271493.808034083</v>
+        <v>-1258533.808034083</v>
       </c>
       <c r="R124" t="n">
-        <v>-8531791.199999999</v>
+        <v>-8497800</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -9085,16 +9085,16 @@
         <v>-2584481.825026699</v>
       </c>
       <c r="O127" t="n">
-        <v>2668320</v>
+        <v>2656080</v>
       </c>
       <c r="P127" t="n">
         <v>0</v>
       </c>
       <c r="Q127" t="n">
-        <v>83838.17497330072</v>
+        <v>71598.17497330072</v>
       </c>
       <c r="R127" t="n">
-        <v>3072240</v>
+        <v>3060000</v>
       </c>
       <c r="S127" t="n">
         <v>330480</v>
@@ -9138,7 +9138,7 @@
         <v>174.0788610455567</v>
       </c>
       <c r="J128" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -9153,16 +9153,16 @@
         <v>1880051.699292012</v>
       </c>
       <c r="O128" t="n">
-        <v>-3002400</v>
+        <v>-2991600</v>
       </c>
       <c r="P128" t="n">
         <v>0</v>
       </c>
       <c r="Q128" t="n">
-        <v>-1122348.300707988</v>
+        <v>-1111548.300707988</v>
       </c>
       <c r="R128" t="n">
-        <v>-2710800</v>
+        <v>-2700000</v>
       </c>
       <c r="S128" t="n">
         <v>-291600</v>
@@ -9265,16 +9265,16 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>458.0261303564371</v>
+        <v>459.8310084052176</v>
       </c>
       <c r="H130" t="n">
         <v>277.22153234181</v>
       </c>
       <c r="I130" t="n">
-        <v>211.305765760554</v>
+        <v>210.6477630245759</v>
       </c>
       <c r="J130" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -9286,19 +9286,19 @@
         <v>10.66</v>
       </c>
       <c r="N130" t="n">
-        <v>-3632623.560902117</v>
+        <v>-3646938.120902117</v>
       </c>
       <c r="O130" t="n">
-        <v>1713104.64</v>
+        <v>1705173.6</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
       </c>
       <c r="Q130" t="n">
-        <v>-1919518.920902118</v>
+        <v>-1941764.520902117</v>
       </c>
       <c r="R130" t="n">
-        <v>1990691.04</v>
+        <v>1982760</v>
       </c>
       <c r="S130" t="n">
         <v>0</v>
@@ -9333,16 +9333,16 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H131" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I131" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J131" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -9354,10 +9354,10 @@
         <v>14.1</v>
       </c>
       <c r="N131" t="n">
-        <v>-2003666.4</v>
+        <v>-1993176</v>
       </c>
       <c r="O131" t="n">
-        <v>2003666.4</v>
+        <v>1993176</v>
       </c>
       <c r="P131" t="n">
         <v>0</v>
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="R131" t="n">
-        <v>2633090.4</v>
+        <v>2622600</v>
       </c>
       <c r="S131" t="n">
         <v>0</v>
@@ -9401,16 +9401,16 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>213.0956509493548</v>
+        <v>212.4819999512866</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>213.0956509493548</v>
+        <v>212.4819999512866</v>
       </c>
       <c r="J132" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -9422,19 +9422,19 @@
         <v>-46.59</v>
       </c>
       <c r="N132" t="n">
-        <v>7386526.025031447</v>
+        <v>7365255.065031447</v>
       </c>
       <c r="O132" t="n">
-        <v>-8700402.960000001</v>
+        <v>-8665740</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
       </c>
       <c r="Q132" t="n">
-        <v>-1313876.934968553</v>
+        <v>-1300484.934968553</v>
       </c>
       <c r="R132" t="n">
-        <v>-8700402.960000001</v>
+        <v>-8665740</v>
       </c>
       <c r="S132" t="n">
         <v>0</v>
@@ -9614,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -9629,16 +9629,16 @@
         <v>-2670631.219194256</v>
       </c>
       <c r="O135" t="n">
-        <v>2757264</v>
+        <v>2744616</v>
       </c>
       <c r="P135" t="n">
         <v>0</v>
       </c>
       <c r="Q135" t="n">
-        <v>86632.78080574395</v>
+        <v>73984.78080574369</v>
       </c>
       <c r="R135" t="n">
-        <v>3174648</v>
+        <v>3162000</v>
       </c>
       <c r="S135" t="n">
         <v>341496</v>
@@ -9682,7 +9682,7 @@
         <v>174.0788610455567</v>
       </c>
       <c r="J136" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -9697,16 +9697,16 @@
         <v>1942720.089268412</v>
       </c>
       <c r="O136" t="n">
-        <v>-3102480</v>
+        <v>-3091320</v>
       </c>
       <c r="P136" t="n">
         <v>0</v>
       </c>
       <c r="Q136" t="n">
-        <v>-1159759.910731588</v>
+        <v>-1148599.910731588</v>
       </c>
       <c r="R136" t="n">
-        <v>-2801160</v>
+        <v>-2790000</v>
       </c>
       <c r="S136" t="n">
         <v>-301320</v>
@@ -9809,16 +9809,16 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>441.9193125743976</v>
+        <v>443.5375262346428</v>
       </c>
       <c r="H138" t="n">
         <v>277.22153234181</v>
       </c>
       <c r="I138" t="n">
-        <v>211.1804982738273</v>
+        <v>210.5316218693329</v>
       </c>
       <c r="J138" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -9830,19 +9830,19 @@
         <v>11.42</v>
       </c>
       <c r="N138" t="n">
-        <v>-3633637.355711726</v>
+        <v>-3646942.955711726</v>
       </c>
       <c r="O138" t="n">
-        <v>1776038.4</v>
+        <v>1767816</v>
       </c>
       <c r="P138" t="n">
         <v>0</v>
       </c>
       <c r="Q138" t="n">
-        <v>-1857598.955711726</v>
+        <v>-1879126.955711726</v>
       </c>
       <c r="R138" t="n">
-        <v>2063822.399999999</v>
+        <v>2055600</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
@@ -9877,16 +9877,16 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H139" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I139" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J139" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -9898,10 +9898,10 @@
         <v>12.9</v>
       </c>
       <c r="N139" t="n">
-        <v>-1774008</v>
+        <v>-1764720</v>
       </c>
       <c r="O139" t="n">
-        <v>1774008</v>
+        <v>1764720</v>
       </c>
       <c r="P139" t="n">
         <v>0</v>
@@ -9910,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="R139" t="n">
-        <v>2331288</v>
+        <v>2322000</v>
       </c>
       <c r="S139" t="n">
         <v>0</v>
@@ -9945,16 +9945,16 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>212.8747059095518</v>
+        <v>212.2633069458213</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>212.8747059095518</v>
+        <v>212.2633069458213</v>
       </c>
       <c r="J140" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -9966,19 +9966,19 @@
         <v>-46.32</v>
       </c>
       <c r="N140" t="n">
-        <v>7099456.591965917</v>
+        <v>7079066.191965917</v>
       </c>
       <c r="O140" t="n">
-        <v>-8370950.4</v>
+        <v>-8337600</v>
       </c>
       <c r="P140" t="n">
         <v>0</v>
       </c>
       <c r="Q140" t="n">
-        <v>-1271493.808034083</v>
+        <v>-1258533.808034083</v>
       </c>
       <c r="R140" t="n">
-        <v>-8370950.4</v>
+        <v>-8337600</v>
       </c>
       <c r="S140" t="n">
         <v>0</v>
@@ -10158,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -10173,16 +10173,16 @@
         <v>-2584481.825026699</v>
       </c>
       <c r="O143" t="n">
-        <v>2668320</v>
+        <v>2656080</v>
       </c>
       <c r="P143" t="n">
         <v>0</v>
       </c>
       <c r="Q143" t="n">
-        <v>83838.17497330072</v>
+        <v>71598.17497330072</v>
       </c>
       <c r="R143" t="n">
-        <v>3072240</v>
+        <v>3060000</v>
       </c>
       <c r="S143" t="n">
         <v>330480</v>
@@ -10226,7 +10226,7 @@
         <v>174.0788610455567</v>
       </c>
       <c r="J144" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -10241,16 +10241,16 @@
         <v>1880051.699292012</v>
       </c>
       <c r="O144" t="n">
-        <v>-3002400</v>
+        <v>-2991600</v>
       </c>
       <c r="P144" t="n">
         <v>0</v>
       </c>
       <c r="Q144" t="n">
-        <v>-1122348.300707988</v>
+        <v>-1111548.300707988</v>
       </c>
       <c r="R144" t="n">
-        <v>-2710800</v>
+        <v>-2700000</v>
       </c>
       <c r="S144" t="n">
         <v>-291600</v>
@@ -10353,16 +10353,16 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>442.7134050614781</v>
+        <v>444.3408215816889</v>
       </c>
       <c r="H146" t="n">
         <v>277.22153234181</v>
       </c>
       <c r="I146" t="n">
-        <v>211.1872577432889</v>
+        <v>210.5378888793338</v>
       </c>
       <c r="J146" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -10374,19 +10374,19 @@
         <v>11.38</v>
       </c>
       <c r="N146" t="n">
-        <v>-3748330.440902117</v>
+        <v>-3762109.320902117</v>
       </c>
       <c r="O146" t="n">
-        <v>1828811.52</v>
+        <v>1820344.8</v>
       </c>
       <c r="P146" t="n">
         <v>0</v>
       </c>
       <c r="Q146" t="n">
-        <v>-1919518.920902118</v>
+        <v>-1941764.520902117</v>
       </c>
       <c r="R146" t="n">
-        <v>2125146.720000001</v>
+        <v>2116680</v>
       </c>
       <c r="S146" t="n">
         <v>0</v>
@@ -10421,16 +10421,16 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H147" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I147" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J147" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>12.3</v>
       </c>
       <c r="N147" t="n">
-        <v>-1747879.2</v>
+        <v>-1738728</v>
       </c>
       <c r="O147" t="n">
-        <v>1747879.2</v>
+        <v>1738728</v>
       </c>
       <c r="P147" t="n">
         <v>0</v>
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="R147" t="n">
-        <v>2296951.2</v>
+        <v>2287800</v>
       </c>
       <c r="S147" t="n">
         <v>0</v>
@@ -10489,16 +10489,16 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>212.8252567602776</v>
+        <v>212.2143618186433</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>212.8252567602776</v>
+        <v>212.2143618186433</v>
       </c>
       <c r="J148" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -10510,19 +10510,19 @@
         <v>-46.26</v>
       </c>
       <c r="N148" t="n">
-        <v>7324900.505031448</v>
+        <v>7303875.065031447</v>
       </c>
       <c r="O148" t="n">
-        <v>-8638777.439999999</v>
+        <v>-8604360</v>
       </c>
       <c r="P148" t="n">
         <v>0</v>
       </c>
       <c r="Q148" t="n">
-        <v>-1313876.934968553</v>
+        <v>-1300484.934968553</v>
       </c>
       <c r="R148" t="n">
-        <v>-8638777.439999999</v>
+        <v>-8604360</v>
       </c>
       <c r="S148" t="n">
         <v>0</v>
@@ -10702,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
@@ -10717,16 +10717,16 @@
         <v>-2670631.219194256</v>
       </c>
       <c r="O151" t="n">
-        <v>2757264</v>
+        <v>2744616</v>
       </c>
       <c r="P151" t="n">
         <v>0</v>
       </c>
       <c r="Q151" t="n">
-        <v>86632.78080574395</v>
+        <v>73984.78080574369</v>
       </c>
       <c r="R151" t="n">
-        <v>3174648</v>
+        <v>3162000</v>
       </c>
       <c r="S151" t="n">
         <v>341496</v>
@@ -10770,7 +10770,7 @@
         <v>174.0788610455567</v>
       </c>
       <c r="J152" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -10785,16 +10785,16 @@
         <v>1942720.089268412</v>
       </c>
       <c r="O152" t="n">
-        <v>-3102480</v>
+        <v>-3091320</v>
       </c>
       <c r="P152" t="n">
         <v>0</v>
       </c>
       <c r="Q152" t="n">
-        <v>-1159759.910731588</v>
+        <v>-1148599.910731588</v>
       </c>
       <c r="R152" t="n">
-        <v>-2801160</v>
+        <v>-2790000</v>
       </c>
       <c r="S152" t="n">
         <v>-301320</v>
@@ -10897,16 +10897,16 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>450.9725455008762</v>
+        <v>452.6956784699108</v>
       </c>
       <c r="H154" t="n">
         <v>277.22153234181</v>
       </c>
       <c r="I154" t="n">
-        <v>211.253824026231</v>
+        <v>210.5996054923444</v>
       </c>
       <c r="J154" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -10918,19 +10918,19 @@
         <v>10.98</v>
       </c>
       <c r="N154" t="n">
-        <v>-3684048.840902117</v>
+        <v>-3698125.320902117</v>
       </c>
       <c r="O154" t="n">
-        <v>1764529.919999999</v>
+        <v>1756360.8</v>
       </c>
       <c r="P154" t="n">
         <v>0</v>
       </c>
       <c r="Q154" t="n">
-        <v>-1919518.920902118</v>
+        <v>-1941764.520902117</v>
       </c>
       <c r="R154" t="n">
-        <v>2050449.12</v>
+        <v>2042280</v>
       </c>
       <c r="S154" t="n">
         <v>0</v>
@@ -10965,16 +10965,16 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H155" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I155" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J155" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -10986,10 +10986,10 @@
         <v>11.62</v>
       </c>
       <c r="N155" t="n">
-        <v>-1651248.48</v>
+        <v>-1642603.2</v>
       </c>
       <c r="O155" t="n">
-        <v>1651248.48</v>
+        <v>1642603.2</v>
       </c>
       <c r="P155" t="n">
         <v>0</v>
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="R155" t="n">
-        <v>2169965.28</v>
+        <v>2161320</v>
       </c>
       <c r="S155" t="n">
         <v>0</v>
@@ -11033,16 +11033,16 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>213.111915420091</v>
+        <v>212.4980986425754</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>213.111915420091</v>
+        <v>212.4980986425754</v>
       </c>
       <c r="J156" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -11054,19 +11054,19 @@
         <v>-46.61</v>
       </c>
       <c r="N156" t="n">
-        <v>7390260.905031447</v>
+        <v>7368975.065031447</v>
       </c>
       <c r="O156" t="n">
-        <v>-8704137.84</v>
+        <v>-8669460</v>
       </c>
       <c r="P156" t="n">
         <v>0</v>
       </c>
       <c r="Q156" t="n">
-        <v>-1313876.934968553</v>
+        <v>-1300484.934968553</v>
       </c>
       <c r="R156" t="n">
-        <v>-8704137.84</v>
+        <v>-8669460</v>
       </c>
       <c r="S156" t="n">
         <v>0</v>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -11261,16 +11261,16 @@
         <v>-2670631.219194256</v>
       </c>
       <c r="O159" t="n">
-        <v>2757264</v>
+        <v>2744616</v>
       </c>
       <c r="P159" t="n">
         <v>0</v>
       </c>
       <c r="Q159" t="n">
-        <v>86632.78080574395</v>
+        <v>73984.78080574369</v>
       </c>
       <c r="R159" t="n">
-        <v>3174648</v>
+        <v>3162000</v>
       </c>
       <c r="S159" t="n">
         <v>341496</v>
@@ -11314,7 +11314,7 @@
         <v>174.0788610455567</v>
       </c>
       <c r="J160" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -11329,16 +11329,16 @@
         <v>1942720.089268412</v>
       </c>
       <c r="O160" t="n">
-        <v>-3102480</v>
+        <v>-3091320</v>
       </c>
       <c r="P160" t="n">
         <v>0</v>
       </c>
       <c r="Q160" t="n">
-        <v>-1159759.910731588</v>
+        <v>-1148599.910731588</v>
       </c>
       <c r="R160" t="n">
-        <v>-2801160</v>
+        <v>-2790000</v>
       </c>
       <c r="S160" t="n">
         <v>-301320</v>
@@ -11441,16 +11441,16 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>476.6059141009717</v>
+        <v>478.6261161211738</v>
       </c>
       <c r="H162" t="n">
         <v>277.22153234181</v>
       </c>
       <c r="I162" t="n">
-        <v>211.4246863612867</v>
+        <v>210.75801969462</v>
       </c>
       <c r="J162" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K162" t="n">
         <v>0</v>
@@ -11462,19 +11462,19 @@
         <v>9.899999999999999</v>
       </c>
       <c r="N162" t="n">
-        <v>-3397246.955711726</v>
+        <v>-3411646.955711726</v>
       </c>
       <c r="O162" t="n">
-        <v>1539648</v>
+        <v>1532520</v>
       </c>
       <c r="P162" t="n">
         <v>0</v>
       </c>
       <c r="Q162" t="n">
-        <v>-1857598.955711726</v>
+        <v>-1879126.955711726</v>
       </c>
       <c r="R162" t="n">
-        <v>1789128</v>
+        <v>1782000</v>
       </c>
       <c r="S162" t="n">
         <v>0</v>
@@ -11509,16 +11509,16 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H163" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I163" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J163" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -11530,10 +11530,10 @@
         <v>12.2</v>
       </c>
       <c r="N163" t="n">
-        <v>-1677744</v>
+        <v>-1668960</v>
       </c>
       <c r="O163" t="n">
-        <v>1677744</v>
+        <v>1668960</v>
       </c>
       <c r="P163" t="n">
         <v>0</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="R163" t="n">
-        <v>2204784</v>
+        <v>2196000</v>
       </c>
       <c r="S163" t="n">
         <v>0</v>
@@ -11577,16 +11577,16 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>213.6092817643541</v>
+        <v>212.9903954632742</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>213.6092817643541</v>
+        <v>212.9903954632742</v>
       </c>
       <c r="J164" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -11598,19 +11598,19 @@
         <v>-47.23</v>
       </c>
       <c r="N164" t="n">
-        <v>7263911.791965917</v>
+        <v>7242866.191965917</v>
       </c>
       <c r="O164" t="n">
-        <v>-8535405.6</v>
+        <v>-8501400</v>
       </c>
       <c r="P164" t="n">
         <v>0</v>
       </c>
       <c r="Q164" t="n">
-        <v>-1271493.808034083</v>
+        <v>-1258533.808034083</v>
       </c>
       <c r="R164" t="n">
-        <v>-8535405.6</v>
+        <v>-8501400</v>
       </c>
       <c r="S164" t="n">
         <v>0</v>
@@ -11790,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -11805,16 +11805,16 @@
         <v>-2584481.825026699</v>
       </c>
       <c r="O167" t="n">
-        <v>2668320</v>
+        <v>2656080</v>
       </c>
       <c r="P167" t="n">
         <v>0</v>
       </c>
       <c r="Q167" t="n">
-        <v>83838.17497330072</v>
+        <v>71598.17497330072</v>
       </c>
       <c r="R167" t="n">
-        <v>3072240</v>
+        <v>3060000</v>
       </c>
       <c r="S167" t="n">
         <v>330480</v>
@@ -11858,7 +11858,7 @@
         <v>174.0788610455567</v>
       </c>
       <c r="J168" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -11873,16 +11873,16 @@
         <v>1880051.699292012</v>
       </c>
       <c r="O168" t="n">
-        <v>-3002400</v>
+        <v>-2991600</v>
       </c>
       <c r="P168" t="n">
         <v>0</v>
       </c>
       <c r="Q168" t="n">
-        <v>-1122348.300707988</v>
+        <v>-1111548.300707988</v>
       </c>
       <c r="R168" t="n">
-        <v>-2710800</v>
+        <v>-2700000</v>
       </c>
       <c r="S168" t="n">
         <v>-291600</v>
@@ -11985,16 +11985,16 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>498.2755524726061</v>
+        <v>500.5468872647287</v>
       </c>
       <c r="H170" t="n">
         <v>277.22153234181</v>
       </c>
       <c r="I170" t="n">
-        <v>211.5377305214109</v>
+        <v>210.8628280506697</v>
       </c>
       <c r="J170" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -12006,19 +12006,19 @@
         <v>9.139999999999997</v>
       </c>
       <c r="N170" t="n">
-        <v>-3388353.480902117</v>
+        <v>-3403798.920902117</v>
       </c>
       <c r="O170" t="n">
-        <v>1468834.56</v>
+        <v>1462034.4</v>
       </c>
       <c r="P170" t="n">
         <v>0</v>
       </c>
       <c r="Q170" t="n">
-        <v>-1919518.920902118</v>
+        <v>-1941764.520902117</v>
       </c>
       <c r="R170" t="n">
-        <v>1706840.16</v>
+        <v>1700040</v>
       </c>
       <c r="S170" t="n">
         <v>0</v>
@@ -12053,16 +12053,16 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H171" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I171" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J171" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -12074,10 +12074,10 @@
         <v>13.4</v>
       </c>
       <c r="N171" t="n">
-        <v>-1904193.6</v>
+        <v>-1894224</v>
       </c>
       <c r="O171" t="n">
-        <v>1904193.6</v>
+        <v>1894224</v>
       </c>
       <c r="P171" t="n">
         <v>0</v>
@@ -12086,7 +12086,7 @@
         <v>0</v>
       </c>
       <c r="R171" t="n">
-        <v>2502369.6</v>
+        <v>2492400</v>
       </c>
       <c r="S171" t="n">
         <v>0</v>
@@ -12121,16 +12121,16 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>213.8531000784695</v>
+        <v>213.2317286018183</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>213.8531000784695</v>
+        <v>213.2317286018183</v>
       </c>
       <c r="J172" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -12142,19 +12142,19 @@
         <v>-47.54</v>
       </c>
       <c r="N172" t="n">
-        <v>7563932.825031448</v>
+        <v>7541955.065031447</v>
       </c>
       <c r="O172" t="n">
-        <v>-8877809.76</v>
+        <v>-8842440</v>
       </c>
       <c r="P172" t="n">
         <v>0</v>
       </c>
       <c r="Q172" t="n">
-        <v>-1313876.934968553</v>
+        <v>-1300484.934968553</v>
       </c>
       <c r="R172" t="n">
-        <v>-8877809.76</v>
+        <v>-8842440</v>
       </c>
       <c r="S172" t="n">
         <v>0</v>
@@ -12334,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -12349,16 +12349,16 @@
         <v>-2670631.219194256</v>
       </c>
       <c r="O175" t="n">
-        <v>2757264</v>
+        <v>2744616</v>
       </c>
       <c r="P175" t="n">
         <v>0</v>
       </c>
       <c r="Q175" t="n">
-        <v>86632.78080574395</v>
+        <v>73984.78080574369</v>
       </c>
       <c r="R175" t="n">
-        <v>3174648</v>
+        <v>3162000</v>
       </c>
       <c r="S175" t="n">
         <v>341496</v>
@@ -12402,7 +12402,7 @@
         <v>174.0788610455567</v>
       </c>
       <c r="J176" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -12417,16 +12417,16 @@
         <v>1942720.089268412</v>
       </c>
       <c r="O176" t="n">
-        <v>-3102480</v>
+        <v>-3091320</v>
       </c>
       <c r="P176" t="n">
         <v>0</v>
       </c>
       <c r="Q176" t="n">
-        <v>-1159759.910731588</v>
+        <v>-1148599.910731588</v>
       </c>
       <c r="R176" t="n">
-        <v>-2801160</v>
+        <v>-2790000</v>
       </c>
       <c r="S176" t="n">
         <v>-301320</v>
@@ -12529,16 +12529,16 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>495.8263068980065</v>
+        <v>498.0692570064664</v>
       </c>
       <c r="H178" t="n">
         <v>277.22153234181</v>
       </c>
       <c r="I178" t="n">
-        <v>211.5260948773989</v>
+        <v>210.8520401185984</v>
       </c>
       <c r="J178" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -12550,19 +12550,19 @@
         <v>9.219999999999999</v>
       </c>
       <c r="N178" t="n">
-        <v>-3291493.355711726</v>
+        <v>-3306382.955711726</v>
       </c>
       <c r="O178" t="n">
-        <v>1433894.4</v>
+        <v>1427256</v>
       </c>
       <c r="P178" t="n">
         <v>0</v>
       </c>
       <c r="Q178" t="n">
-        <v>-1857598.955711726</v>
+        <v>-1879126.955711726</v>
       </c>
       <c r="R178" t="n">
-        <v>1666238.4</v>
+        <v>1659600</v>
       </c>
       <c r="S178" t="n">
         <v>0</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H179" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I179" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J179" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -12618,10 +12618,10 @@
         <v>14.8</v>
       </c>
       <c r="N179" t="n">
-        <v>-2035296</v>
+        <v>-2024640</v>
       </c>
       <c r="O179" t="n">
-        <v>2035296</v>
+        <v>2024640</v>
       </c>
       <c r="P179" t="n">
         <v>0</v>
@@ -12630,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="R179" t="n">
-        <v>2674656</v>
+        <v>2664000</v>
       </c>
       <c r="S179" t="n">
         <v>0</v>
@@ -12665,16 +12665,16 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>213.8218184785356</v>
+        <v>213.2007658469566</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>213.8218184785356</v>
+        <v>213.2007658469566</v>
       </c>
       <c r="J180" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -12686,19 +12686,19 @@
         <v>-47.5</v>
       </c>
       <c r="N180" t="n">
-        <v>7312706.191965917</v>
+        <v>7291466.191965917</v>
       </c>
       <c r="O180" t="n">
-        <v>-8584200</v>
+        <v>-8550000</v>
       </c>
       <c r="P180" t="n">
         <v>0</v>
       </c>
       <c r="Q180" t="n">
-        <v>-1271493.808034083</v>
+        <v>-1258533.808034083</v>
       </c>
       <c r="R180" t="n">
-        <v>-8584200</v>
+        <v>-8550000</v>
       </c>
       <c r="S180" t="n">
         <v>0</v>
@@ -12878,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -12893,16 +12893,16 @@
         <v>-2584481.825026699</v>
       </c>
       <c r="O183" t="n">
-        <v>2668320</v>
+        <v>2656080</v>
       </c>
       <c r="P183" t="n">
         <v>0</v>
       </c>
       <c r="Q183" t="n">
-        <v>83838.17497330072</v>
+        <v>71598.17497330072</v>
       </c>
       <c r="R183" t="n">
-        <v>3072240</v>
+        <v>3060000</v>
       </c>
       <c r="S183" t="n">
         <v>330480</v>
@@ -12946,7 +12946,7 @@
         <v>174.0788610455567</v>
       </c>
       <c r="J184" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -12961,16 +12961,16 @@
         <v>1880051.699292012</v>
       </c>
       <c r="O184" t="n">
-        <v>-3002400</v>
+        <v>-2991600</v>
       </c>
       <c r="P184" t="n">
         <v>0</v>
       </c>
       <c r="Q184" t="n">
-        <v>-1122348.300707988</v>
+        <v>-1111548.300707988</v>
       </c>
       <c r="R184" t="n">
-        <v>-2710800</v>
+        <v>-2700000</v>
       </c>
       <c r="S184" t="n">
         <v>-291600</v>
@@ -13073,16 +13073,16 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>494.6175539524428</v>
+        <v>496.846495637108</v>
       </c>
       <c r="H186" t="n">
         <v>277.22153234181</v>
       </c>
       <c r="I186" t="n">
-        <v>211.5202542701893</v>
+        <v>210.8466250273695</v>
       </c>
       <c r="J186" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
@@ -13094,19 +13094,19 @@
         <v>9.259999999999998</v>
       </c>
       <c r="N186" t="n">
-        <v>-3407637.960902117</v>
+        <v>-3422994.120902117</v>
       </c>
       <c r="O186" t="n">
-        <v>1488119.04</v>
+        <v>1481229.6</v>
       </c>
       <c r="P186" t="n">
         <v>0</v>
       </c>
       <c r="Q186" t="n">
-        <v>-1919518.920902118</v>
+        <v>-1941764.520902117</v>
       </c>
       <c r="R186" t="n">
-        <v>1729249.439999999</v>
+        <v>1722360</v>
       </c>
       <c r="S186" t="n">
         <v>0</v>
@@ -13141,16 +13141,16 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H187" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I187" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J187" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
@@ -13162,10 +13162,10 @@
         <v>14.6</v>
       </c>
       <c r="N187" t="n">
-        <v>-2074718.4</v>
+        <v>-2063856</v>
       </c>
       <c r="O187" t="n">
-        <v>2074718.4</v>
+        <v>2063856</v>
       </c>
       <c r="P187" t="n">
         <v>0</v>
@@ -13174,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="R187" t="n">
-        <v>2726462.4</v>
+        <v>2715600</v>
       </c>
       <c r="S187" t="n">
         <v>0</v>
@@ -13209,16 +13209,16 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>213.9854617004913</v>
+        <v>213.3627410968443</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>213.9854617004913</v>
+        <v>213.3627410968443</v>
       </c>
       <c r="J188" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
@@ -13230,19 +13230,19 @@
         <v>-47.71</v>
       </c>
       <c r="N188" t="n">
-        <v>7595679.305031447</v>
+        <v>7573575.065031447</v>
       </c>
       <c r="O188" t="n">
-        <v>-8909556.24</v>
+        <v>-8874060</v>
       </c>
       <c r="P188" t="n">
         <v>0</v>
       </c>
       <c r="Q188" t="n">
-        <v>-1313876.934968553</v>
+        <v>-1300484.934968553</v>
       </c>
       <c r="R188" t="n">
-        <v>-8909556.24</v>
+        <v>-8874060</v>
       </c>
       <c r="S188" t="n">
         <v>0</v>
@@ -13422,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -13437,16 +13437,16 @@
         <v>-2670631.219194256</v>
       </c>
       <c r="O191" t="n">
-        <v>2757264</v>
+        <v>2744616</v>
       </c>
       <c r="P191" t="n">
         <v>0</v>
       </c>
       <c r="Q191" t="n">
-        <v>86632.78080574395</v>
+        <v>73984.78080574369</v>
       </c>
       <c r="R191" t="n">
-        <v>3174648</v>
+        <v>3162000</v>
       </c>
       <c r="S191" t="n">
         <v>341496</v>
@@ -13490,7 +13490,7 @@
         <v>174.0788610455567</v>
       </c>
       <c r="J192" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K192" t="n">
         <v>0</v>
@@ -13505,16 +13505,16 @@
         <v>1942720.089268412</v>
       </c>
       <c r="O192" t="n">
-        <v>-3102480</v>
+        <v>-3091320</v>
       </c>
       <c r="P192" t="n">
         <v>0</v>
       </c>
       <c r="Q192" t="n">
-        <v>-1159759.910731588</v>
+        <v>-1148599.910731588</v>
       </c>
       <c r="R192" t="n">
-        <v>-2801160</v>
+        <v>-2790000</v>
       </c>
       <c r="S192" t="n">
         <v>-301320</v>
